--- a/test/data/test-2-modbus-rtu-sensor.xlsx
+++ b/test/data/test-2-modbus-rtu-sensor.xlsx
@@ -65,7 +65,7 @@
     <t>传感器1-湿度</t>
   </si>
   <si>
-    <t>SHORT</t>
+    <t>INT16</t>
   </si>
   <si>
     <t>AB</t>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/test/data/test-2-modbus-rtu-sensor.xlsx
+++ b/test/data/test-2-modbus-rtu-sensor.xlsx
@@ -1269,18 +1269,21 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="8.11666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.025" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.0166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.2833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.575" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="9.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
